--- a/biology/Botanique/Kerner_(cépage)/Kerner_(cépage).xlsx
+++ b/biology/Botanique/Kerner_(cépage)/Kerner_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kerner_(c%C3%A9page)</t>
+          <t>Kerner_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le kerner est un cépage blanc planté principalement en Allemagne (5 557 hectares au premier mars 2004, soit 5,4 % de la production), issu du croisement trollinger (rouge) x riesling (blanc).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kerner_(c%C3%A9page)</t>
+          <t>Kerner_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom au poète et médecin Justinus Kerner qui vécut à Weinsberg, non loin de l'Institut d'état de recherche sur la vinification (Staatliche Lehr- und Versuchsanstalt für Wein- und Obstbau) où August Herold créa cette variété en 1929.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kerner_(c%C3%A9page)</t>
+          <t>Kerner_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins issus de ce cépage ressemblent au riesling, ont de hautes teneurs en sucre, sont assez acides avec parfois un léger arôme de muscade.
-Régions de production
-En Belgique, il est autorisé pour les trois AOC flamandes Hageland[1], Haspengouw[2] et Heuvelland[3].
 </t>
         </is>
       </c>
@@ -558,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kerner_(c%C3%A9page)</t>
+          <t>Kerner_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +587,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Synonymes</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Herold Triumpf, Herold Weiss, Schiava Grossa x Riesling Renano WE 25/30, Trollinger x Riesling Renano WE S 25/30, WE S 2530, S Weinsberg 25-30 Herold Weißer.
+          <t>Régions de production</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, il est autorisé pour les trois AOC flamandes Hageland, Haspengouw et Heuvelland.
 </t>
         </is>
       </c>
@@ -589,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kerner_(c%C3%A9page)</t>
+          <t>Kerner_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +624,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herold Triumpf, Herold Weiss, Schiava Grossa x Riesling Renano WE 25/30, Trollinger x Riesling Renano WE S 25/30, WE S 2530, S Weinsberg 25-30 Herold Weißer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kerner_(cépage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kerner_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Mutation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1974, une mutation du Kerner a été découverte et baptisée kernling.
 </t>
